--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6870"/>
+    <workbookView windowWidth="15330" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>序号</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>密码</t>
+  </si>
+  <si>
+    <t>审核结果</t>
   </si>
   <si>
     <t>baidu</t>
@@ -359,12 +362,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -427,6 +430,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -434,12 +458,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -448,7 +504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,44 +519,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,17 +562,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,39 +577,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,25 +605,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,157 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,8 +835,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -838,6 +855,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,26 +885,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,11 +916,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,152 +935,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1116,6 +1131,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1163,8 +1181,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1562,21 +1580,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
     <col min="3" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="44.1636363636364" style="6" customWidth="1"/>
-    <col min="7" max="7" width="22.1636363636364" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.6636363636364" style="6" customWidth="1"/>
-    <col min="9" max="9" width="46.8363636363636" style="6" customWidth="1"/>
+    <col min="6" max="6" width="44.1666666666667" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.1666666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.6666666666667" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1601,302 +1619,304 @@
       <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="15" spans="1:9">
+      <c r="I1" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="40.5" spans="1:10">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:9">
+      <c r="J2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="14" customHeight="1" spans="1:10">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="15" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="40.5" spans="1:10">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="12">
         <v>360</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="28" spans="1:9">
+      <c r="J4" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="162" spans="1:10">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="15" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:10">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="17">
         <v>3029556887</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="30" spans="1:9">
+      <c r="J6" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="67.5" spans="1:10">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
+      <c r="C7" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>16</v>
+      <c r="F7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:8">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="C8" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="18" t="s">
-        <v>39</v>
+      <c r="F8" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="1:10">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" s="6" customFormat="1" spans="1:9">
+      <c r="H9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="40.5" spans="1:10">
       <c r="A10" s="11">
         <v>12</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>45</v>
+      <c r="B10" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22" t="s">
         <v>47</v>
       </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="G10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" spans="1:9">
-      <c r="A11" s="23"/>
+      <c r="H10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:10">
+      <c r="A11" s="24"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="15"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" s="8" customFormat="1" spans="1:9">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="1:10">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="28" t="s">
+      <c r="C12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="G12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="14" ht="27" spans="1:10">
       <c r="A14" s="11">
         <v>9</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="G14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="28" spans="1:8">
+      <c r="J14" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="27" spans="1:8">
       <c r="A15" s="11">
         <v>10</v>
       </c>
@@ -1904,305 +1924,305 @@
         <v>10086</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="30" t="s">
-        <v>62</v>
+      <c r="F15" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" ht="28" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:8">
       <c r="A16" s="11">
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21" t="s">
         <v>67</v>
       </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="G16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:8">
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="C17" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:8">
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>70</v>
+      <c r="B18" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="30" spans="1:8">
+      <c r="G18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="28.5" spans="1:8">
       <c r="A19" s="11">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="18" t="s">
-        <v>76</v>
+      <c r="F19" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="20">
+      <c r="B20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="21">
         <v>91</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="32" t="s">
-        <v>78</v>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="33" t="s">
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" ht="28" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" ht="67.5" spans="1:10">
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>82</v>
       </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="G21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="1" ht="15" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="14.25" spans="1:8">
       <c r="A22" s="11">
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="33" t="s">
-        <v>86</v>
+      <c r="F22" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="19.5" customHeight="1" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
       <c r="A23" s="11">
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="32" t="s">
-        <v>89</v>
+      <c r="F23" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="1:10">
       <c r="A24" s="11">
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="15" spans="1:8">
+      <c r="G24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="14.25" spans="1:8">
       <c r="A25" s="11">
         <v>21</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="18" t="s">
-        <v>96</v>
+      <c r="F25" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="28" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="27" spans="1:8">
       <c r="A26" s="11">
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="28" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:8">
       <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="H27" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2234,22 +2254,22 @@
     <hyperlink ref="F26" r:id="rId22" display="http://www.nduoa.com/developer/apk/index/list/publish"/>
     <hyperlink ref="F5" r:id="rId23" display="http://www.wandoujia.com/apps/dev/home" tooltip="http://www.wandoujia.com/apps/dev/home"/>
     <hyperlink ref="F6" r:id="rId24" display="http://tap.3g.qq.com:8080" tooltip="http://tap.3g.qq.com:8080"/>
-    <hyperlink ref="F4" r:id="rId25" display="http://open.app.360.cn"/>
+    <hyperlink ref="F4" r:id="rId25" display="http://open.app.360.cn" tooltip="http://open.app.360.cn"/>
     <hyperlink ref="F7" r:id="rId26" display="http://www.appchina.com/market/dev/index.action" tooltip="http://www.appchina.com/market/dev/index.action"/>
     <hyperlink ref="F19" r:id="rId27" display="http://dev.gfan.com/Aspx/DevApp/LoginUser.aspx" tooltip="http://dev.gfan.com/Aspx/DevApp/LoginUser.aspx"/>
-    <hyperlink ref="I6" r:id="rId28" display="http://open.qq.com/" tooltip="http://open.qq.com/"/>
+    <hyperlink ref="J6" r:id="rId28" display="http://open.qq.com/" tooltip="http://open.qq.com/"/>
     <hyperlink ref="G3" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
     <hyperlink ref="G25" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
     <hyperlink ref="G8" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
     <hyperlink ref="G9" r:id="rId29" display="2909080509@qq.com" tooltip="mailto:2909080509@qq.com"/>
-    <hyperlink ref="I3" r:id="rId30" display="http://dev.xiaomi.com/home?userId=118263915" tooltip="http://dev.xiaomi.com/home?userId=118263915"/>
-    <hyperlink ref="I4" r:id="rId31" display="http://dev.360.cn/" tooltip="http://dev.360.cn/"/>
-    <hyperlink ref="I7" r:id="rId32" display="http://dev.appchina.com/dev/index" tooltip="http://dev.appchina.com/dev/index"/>
+    <hyperlink ref="J3" r:id="rId30" display="http://dev.xiaomi.com/home?userId=118263915" tooltip="http://dev.xiaomi.com/home?userId=118263915"/>
+    <hyperlink ref="J4" r:id="rId31" display="http://dev.360.cn/" tooltip="http://dev.360.cn/"/>
+    <hyperlink ref="J7" r:id="rId32" display="http://dev.appchina.com/dev/index" tooltip="http://dev.appchina.com/dev/index"/>
     <hyperlink ref="F10" r:id="rId33" display="http://developer.huawei.com/" tooltip="http://developer.huawei.com/"/>
     <hyperlink ref="G10" r:id="rId6" display="chunyu.cai@docin.com" tooltip="mailto:chunyu.cai@docin.com"/>
-    <hyperlink ref="I10" r:id="rId7" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
-    <hyperlink ref="I5" r:id="rId34" display="http://open.uc.cn/login?redirectUrl=http%3A%2F%2Faliapp.open.uc.cn%2F.%2Fapp%2Fmng%2Findex"/>
-    <hyperlink ref="I9" r:id="rId35" display="http://zhushou.sogou.com/open/user/app/index.html"/>
+    <hyperlink ref="J10" r:id="rId7" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
+    <hyperlink ref="J5" r:id="rId34" display="http://open.uc.cn/login?redirectUrl=http%3A%2F%2Faliapp.open.uc.cn%2F.%2Fapp%2Fmng%2Findex"/>
+    <hyperlink ref="J9" r:id="rId35" display="http://zhushou.sogou.com/open/user/app/index.html"/>
     <hyperlink ref="F12" r:id="rId36" display="http://mobile.docin.com/admin"/>
     <hyperlink ref="G19" r:id="rId4" display="mobile@docin.com"/>
   </hyperlinks>
@@ -2268,7 +2288,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2285,44 +2305,44 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="54.6636363636364" customWidth="1"/>
-    <col min="5" max="5" width="20.1636363636364" customWidth="1"/>
-    <col min="6" max="6" width="19.6636363636364" customWidth="1"/>
+    <col min="4" max="4" width="54.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="20.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1"/>
     <row r="4" ht="20.25" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="7560"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -362,9 +362,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -436,7 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,6 +450,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -458,7 +466,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,6 +526,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -480,103 +571,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -611,13 +611,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,13 +701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +719,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +755,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,109 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,6 +844,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -855,15 +903,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,192 +930,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1582,8 +1582,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="18600" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
   <si>
     <t>序号</t>
   </si>
@@ -333,10 +333,13 @@
     <t>VIVO</t>
   </si>
   <si>
-    <t>doucin</t>
-  </si>
-  <si>
-    <t>Doucing!</t>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>docin_123</t>
+  </si>
+  <si>
+    <t>doucin.123</t>
   </si>
   <si>
     <t>友盟</t>
@@ -442,6 +445,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +460,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -459,39 +529,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,13 +550,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -520,63 +560,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -611,187 +614,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,6 +871,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -907,21 +925,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -938,10 +941,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,16 +953,16 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,115 +971,115 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,18 +1586,18 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
     <col min="3" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="44.1666666666667" style="6" customWidth="1"/>
-    <col min="7" max="7" width="22.1666666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.6666666666667" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="44.1636363636364" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.1636363636364" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.6636363636364" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.2545454545455" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1623,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="40.5" spans="1:10">
+    <row r="2" s="5" customFormat="1" ht="42" spans="1:10">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14" customHeight="1" spans="1:10">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:10">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="40.5" spans="1:10">
+    <row r="4" s="5" customFormat="1" ht="42" spans="1:10">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="162" spans="1:10">
+    <row r="5" s="5" customFormat="1" ht="168" spans="1:10">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:10">
+    <row r="6" s="5" customFormat="1" ht="15" spans="1:10">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="67.5" spans="1:10">
+    <row r="7" s="5" customFormat="1" ht="70" spans="1:10">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:8">
+    <row r="8" s="5" customFormat="1" ht="15" spans="1:8">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="94.5" spans="1:10">
+    <row r="9" ht="98" spans="1:10">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="40.5" spans="1:10">
+    <row r="10" s="6" customFormat="1" ht="42" spans="1:10">
       <c r="A10" s="11">
         <v>12</v>
       </c>
@@ -1855,7 +1858,7 @@
       <c r="H10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1891,7 +1894,7 @@
       </c>
       <c r="J12" s="29"/>
     </row>
-    <row r="14" ht="27" spans="1:10">
+    <row r="14" ht="28" spans="1:10">
       <c r="A14" s="11">
         <v>9</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="27" spans="1:8">
+    <row r="15" s="5" customFormat="1" ht="28" spans="1:8">
       <c r="A15" s="11">
         <v>10</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:8">
+    <row r="16" ht="28" spans="1:8">
       <c r="A16" s="11">
         <v>11</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:8">
+    <row r="17" ht="30" spans="1:8">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="28.5" spans="1:8">
+    <row r="19" s="5" customFormat="1" ht="30" spans="1:8">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="67.5" spans="1:10">
+    <row r="21" ht="70" spans="1:10">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="14.25" spans="1:8">
+    <row r="22" s="5" customFormat="1" ht="15" spans="1:8">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" ht="54" spans="1:10">
+    <row r="24" ht="56" spans="1:10">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" ht="14.25" spans="1:8">
+    <row r="25" s="5" customFormat="1" ht="15" spans="1:8">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" ht="27" spans="1:8">
+    <row r="26" s="5" customFormat="1" ht="28" spans="1:8">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:8">
+    <row r="27" ht="28" spans="1:8">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -2218,11 +2221,14 @@
       <c r="B28" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="C28" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2294,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2305,21 +2311,21 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="54.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="20.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="54.6636363636364" customWidth="1"/>
+    <col min="5" max="5" width="20.1636363636364" customWidth="1"/>
+    <col min="6" max="6" width="19.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -2331,18 +2337,18 @@
     <row r="3" ht="17.25" customHeight="1"/>
     <row r="4" ht="20.25" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -365,9 +365,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -445,8 +445,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,22 +520,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,14 +558,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -505,6 +566,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -512,74 +580,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -614,187 +614,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,37 +836,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,22 +870,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,12 +892,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -941,10 +941,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,133 +953,133 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -339,7 +339,7 @@
     <t>docin_123</t>
   </si>
   <si>
-    <t>doucin.123</t>
+    <t>docin.123</t>
   </si>
   <si>
     <t>友盟</t>
@@ -439,9 +439,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,120 +567,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,55 +614,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,121 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,17 +836,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,35 +877,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,11 +904,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,145 +941,145 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6870"/>
+    <workbookView windowWidth="18600" windowHeight="6980"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>序号</t>
   </si>
@@ -365,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -439,14 +439,113 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,49 +559,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,68 +574,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -614,37 +614,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,24 +788,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,120 +795,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,21 +836,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -877,29 +862,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,17 +899,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,148 +938,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,10 +1583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2229,6 +2229,11 @@
       </c>
       <c r="H28" s="6" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6980"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -446,7 +446,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,27 +534,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -497,25 +543,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,24 +566,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,20 +580,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -614,187 +614,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +840,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,7 +873,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,6 +893,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -899,21 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -924,15 +933,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -941,10 +941,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,133 +953,133 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView windowWidth="18600" windowHeight="6980"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -441,12 +441,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +477,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,74 +537,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,21 +574,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -614,187 +614,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,11 +836,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,8 +854,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,52 +909,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,153 +924,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>tianyouzhen445</t>
+  </si>
+  <si>
+    <t>下载地址</t>
   </si>
 </sst>
 </file>
@@ -365,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -438,17 +441,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +495,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -468,88 +539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,11 +564,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -614,31 +617,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,151 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,6 +840,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -847,15 +883,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,30 +917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -938,148 +941,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1589,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2296,7 +2299,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2310,13 +2313,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="54.6636363636364" customWidth="1"/>
     <col min="5" max="5" width="20.1636363636364" customWidth="1"/>
@@ -2356,10 +2359,15 @@
         <v>113</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.umeng.com/apps"/>
-    <hyperlink ref="E2" r:id="rId2" display="mobile@docin.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.umeng.com/apps" tooltip="http://www.umeng.com/apps"/>
+    <hyperlink ref="E2" r:id="rId2" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
     <hyperlink ref="D4" r:id="rId3" display="http://admin.docin.com/docinadmin/author/login.do"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/豆丁世纪/安卓/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6980"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -165,64 +165,64 @@
     <t>http://developer.huawei.com/</t>
   </si>
   <si>
+    <t>docin123Android</t>
+  </si>
+  <si>
+    <t>DocIn</t>
+  </si>
+  <si>
+    <t>豆丁</t>
+  </si>
+  <si>
+    <t>http://mobile.docin.com/admin</t>
+  </si>
+  <si>
+    <t>houguoqi</t>
+  </si>
+  <si>
+    <t>wq6Ksa7gQ</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>谷歌</t>
+  </si>
+  <si>
+    <t>https://play.google.com/apps/publish/</t>
+  </si>
+  <si>
+    <t>bjia.docin@gmail.com</t>
+  </si>
+  <si>
+    <t>docin2019.</t>
+  </si>
+  <si>
+    <t>原：123docin</t>
+  </si>
+  <si>
+    <t>移动MM</t>
+  </si>
+  <si>
+    <t>http://dev.10086.cn/cmdn/supesite/newdev.controlpanel.php?operation=EL_COMMERCIAL</t>
+  </si>
+  <si>
+    <t>18810720025@163.com</t>
+  </si>
+  <si>
+    <t>123docin!</t>
+  </si>
+  <si>
+    <t>nearme</t>
+  </si>
+  <si>
+    <t>oppo</t>
+  </si>
+  <si>
+    <t>http://dev.store.nearme.com.cn/user/user_login</t>
+  </si>
+  <si>
     <t>chunyu.cai@docin.com</t>
-  </si>
-  <si>
-    <t>docin123Android</t>
-  </si>
-  <si>
-    <t>DocIn</t>
-  </si>
-  <si>
-    <t>豆丁</t>
-  </si>
-  <si>
-    <t>http://mobile.docin.com/admin</t>
-  </si>
-  <si>
-    <t>houguoqi</t>
-  </si>
-  <si>
-    <t>wq6Ksa7gQ</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>谷歌</t>
-  </si>
-  <si>
-    <t>https://play.google.com/apps/publish/</t>
-  </si>
-  <si>
-    <t>bjia.docin@gmail.com</t>
-  </si>
-  <si>
-    <t>docin2019.</t>
-  </si>
-  <si>
-    <t>原：123docin</t>
-  </si>
-  <si>
-    <t>移动MM</t>
-  </si>
-  <si>
-    <t>http://dev.10086.cn/cmdn/supesite/newdev.controlpanel.php?operation=EL_COMMERCIAL</t>
-  </si>
-  <si>
-    <t>18810720025@163.com</t>
-  </si>
-  <si>
-    <t>123docin!</t>
-  </si>
-  <si>
-    <t>nearme</t>
-  </si>
-  <si>
-    <t>oppo</t>
-  </si>
-  <si>
-    <t>http://dev.store.nearme.com.cn/user/user_login</t>
   </si>
   <si>
     <t>SX</t>
@@ -369,8 +369,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -441,6 +441,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -450,7 +518,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -458,32 +526,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,93 +578,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -617,19 +617,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,19 +755,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,139 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,6 +865,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -873,16 +884,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,32 +913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -936,153 +921,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1588,8 +1588,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1856,10 +1856,10 @@
         <v>48</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>50</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>22</v>
@@ -1879,21 +1879,21 @@
     <row r="12" s="8" customFormat="1" spans="1:10">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="H12" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="J12" s="29"/>
     </row>
@@ -1902,24 +1902,24 @@
         <v>9</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="J14" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="28" spans="1:8">
@@ -1930,18 +1930,18 @@
         <v>10086</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:8">
@@ -1949,18 +1949,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>12</v>
@@ -1980,7 +1980,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H17" s="21"/>
     </row>
@@ -2099,7 +2099,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
@@ -2236,7 +2236,7 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2280,7 @@
     <hyperlink ref="J4" r:id="rId31" display="http://dev.360.cn/" tooltip="http://dev.360.cn/"/>
     <hyperlink ref="J7" r:id="rId32" display="http://dev.appchina.com/dev/index" tooltip="http://dev.appchina.com/dev/index"/>
     <hyperlink ref="F10" r:id="rId33" display="http://developer.huawei.com/" tooltip="http://developer.huawei.com/"/>
-    <hyperlink ref="G10" r:id="rId6" display="chunyu.cai@docin.com" tooltip="mailto:chunyu.cai@docin.com"/>
+    <hyperlink ref="G10" r:id="rId7" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
     <hyperlink ref="J10" r:id="rId7" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
     <hyperlink ref="J5" r:id="rId34" display="http://open.uc.cn/login?redirectUrl=http%3A%2F%2Faliapp.open.uc.cn%2F.%2Fapp%2Fmng%2Findex"/>
     <hyperlink ref="J9" r:id="rId35" display="http://zhushou.sogou.com/open/user/app/index.html"/>
@@ -2316,7 +2316,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
